--- a/xlsx/大熔炉_intext.xlsx
+++ b/xlsx/大熔炉_intext.xlsx
@@ -29,7 +29,7 @@
     <t>熔炉 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_大熔炉</t>
+    <t>政策_政策_美国_大熔炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%8C%96</t>
